--- a/test_data.xlsx
+++ b/test_data.xlsx
@@ -21,6 +21,305 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+  <si>
+    <t>405 nm</t>
+  </si>
+  <si>
+    <t>Temperature(¡C)</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>B12</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>E9</t>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>E11</t>
+  </si>
+  <si>
+    <t>E12</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>F12</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>G6</t>
+  </si>
+  <si>
+    <t>G7</t>
+  </si>
+  <si>
+    <t>G8</t>
+  </si>
+  <si>
+    <t>G9</t>
+  </si>
+  <si>
+    <t>G10</t>
+  </si>
+  <si>
+    <t>G11</t>
+  </si>
+  <si>
+    <t>G12</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>H4</t>
+  </si>
+  <si>
+    <t>H5</t>
+  </si>
+  <si>
+    <t>H6</t>
+  </si>
+  <si>
+    <t>H7</t>
+  </si>
+  <si>
+    <t>H8</t>
+  </si>
+  <si>
+    <t>H9</t>
+  </si>
+  <si>
+    <t>H10</t>
+  </si>
+  <si>
+    <t>H11</t>
+  </si>
+  <si>
+    <t>H12</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -336,316 +635,3860 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:CT13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>18017136</v>
-      </c>
-      <c r="B1">
-        <v>21803636</v>
-      </c>
-      <c r="C1">
-        <v>1698610</v>
-      </c>
-      <c r="D1">
-        <v>2408332</v>
-      </c>
-      <c r="E1">
-        <v>1819479</v>
-      </c>
-      <c r="F1">
-        <v>505040</v>
-      </c>
-      <c r="G1">
-        <v>54017</v>
-      </c>
-      <c r="H1">
-        <v>35166</v>
-      </c>
-      <c r="I1">
-        <v>146263</v>
-      </c>
-      <c r="J1">
-        <v>3675625</v>
-      </c>
-      <c r="K1">
-        <v>9950925</v>
-      </c>
-      <c r="L1">
-        <v>845793</v>
+    <row r="1" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>18877456</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>13505870</v>
+        <v>27.5</v>
       </c>
       <c r="C2">
-        <v>3453385</v>
+        <v>0.44230000000000003</v>
       </c>
       <c r="D2">
-        <v>5306656</v>
+        <v>0.5222</v>
       </c>
       <c r="E2">
-        <v>4373333</v>
+        <v>0.47060000000000002</v>
       </c>
       <c r="F2">
-        <v>1819112</v>
+        <v>0.6331</v>
       </c>
       <c r="G2">
-        <v>48304</v>
+        <v>0.66820000000000002</v>
       </c>
       <c r="H2">
-        <v>51721</v>
+        <v>0.69920000000000004</v>
       </c>
       <c r="I2">
-        <v>141384</v>
+        <v>0.90190000000000003</v>
       </c>
       <c r="J2">
-        <v>12992671</v>
+        <v>0.69479999999999997</v>
       </c>
       <c r="K2">
-        <v>9158803</v>
+        <v>0.98209999999999997</v>
       </c>
       <c r="L2">
-        <v>22781432</v>
+        <v>1.2549999999999999</v>
+      </c>
+      <c r="M2">
+        <v>1.7577</v>
+      </c>
+      <c r="N2">
+        <v>2.3473000000000002</v>
+      </c>
+      <c r="O2">
+        <v>0.75670000000000004</v>
+      </c>
+      <c r="P2">
+        <v>0.47710000000000002</v>
+      </c>
+      <c r="Q2">
+        <v>0.49469999999999997</v>
+      </c>
+      <c r="R2">
+        <v>0.68669999999999998</v>
+      </c>
+      <c r="S2">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="T2">
+        <v>0.73950000000000005</v>
+      </c>
+      <c r="U2">
+        <v>0.88859999999999995</v>
+      </c>
+      <c r="V2">
+        <v>0.68340000000000001</v>
+      </c>
+      <c r="W2">
+        <v>1.0339</v>
+      </c>
+      <c r="X2">
+        <v>1.0824</v>
+      </c>
+      <c r="Y2">
+        <v>1.8967000000000001</v>
+      </c>
+      <c r="Z2">
+        <v>2.0417999999999998</v>
+      </c>
+      <c r="AA2">
+        <v>0.34589999999999999</v>
+      </c>
+      <c r="AB2">
+        <v>0.39419999999999999</v>
+      </c>
+      <c r="AC2">
+        <v>0.45839999999999997</v>
+      </c>
+      <c r="AD2">
+        <v>0.51890000000000003</v>
+      </c>
+      <c r="AE2">
+        <v>0.5726</v>
+      </c>
+      <c r="AF2">
+        <v>0.63339999999999996</v>
+      </c>
+      <c r="AG2">
+        <v>0.73019999999999996</v>
+      </c>
+      <c r="AH2">
+        <v>0.68510000000000004</v>
+      </c>
+      <c r="AI2">
+        <v>0.7833</v>
+      </c>
+      <c r="AJ2">
+        <v>0.90439999999999998</v>
+      </c>
+      <c r="AK2">
+        <v>1.2744</v>
+      </c>
+      <c r="AL2">
+        <v>1.7758</v>
+      </c>
+      <c r="AM2">
+        <v>0.41689999999999999</v>
+      </c>
+      <c r="AN2">
+        <v>0.41670000000000001</v>
+      </c>
+      <c r="AO2">
+        <v>0.42420000000000002</v>
+      </c>
+      <c r="AP2">
+        <v>0.43909999999999999</v>
+      </c>
+      <c r="AQ2">
+        <v>0.46060000000000001</v>
+      </c>
+      <c r="AR2">
+        <v>0.89839999999999998</v>
+      </c>
+      <c r="AS2">
+        <v>0.70689999999999997</v>
+      </c>
+      <c r="AT2">
+        <v>0.45319999999999999</v>
+      </c>
+      <c r="AU2">
+        <v>0.51149999999999995</v>
+      </c>
+      <c r="AV2">
+        <v>0.55940000000000001</v>
+      </c>
+      <c r="AW2">
+        <v>0.60680000000000001</v>
+      </c>
+      <c r="AX2">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="AY2">
+        <v>0.4209</v>
+      </c>
+      <c r="AZ2">
+        <v>0.46550000000000002</v>
+      </c>
+      <c r="BA2">
+        <v>0.4803</v>
+      </c>
+      <c r="BB2">
+        <v>0.56010000000000004</v>
+      </c>
+      <c r="BC2">
+        <v>0.6633</v>
+      </c>
+      <c r="BD2">
+        <v>0.75560000000000005</v>
+      </c>
+      <c r="BE2">
+        <v>0.999</v>
+      </c>
+      <c r="BF2">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="BG2">
+        <v>0.82809999999999995</v>
+      </c>
+      <c r="BH2">
+        <v>0.97019999999999995</v>
+      </c>
+      <c r="BI2">
+        <v>1.4790000000000001</v>
+      </c>
+      <c r="BJ2">
+        <v>2.0687000000000002</v>
+      </c>
+      <c r="BK2">
+        <v>0.4582</v>
+      </c>
+      <c r="BL2">
+        <v>0.4093</v>
+      </c>
+      <c r="BM2">
+        <v>0.49380000000000002</v>
+      </c>
+      <c r="BN2">
+        <v>0.54659999999999997</v>
+      </c>
+      <c r="BO2">
+        <v>0.6643</v>
+      </c>
+      <c r="BP2">
+        <v>0.75370000000000004</v>
+      </c>
+      <c r="BQ2">
+        <v>0.76980000000000004</v>
+      </c>
+      <c r="BR2">
+        <v>0.67889999999999995</v>
+      </c>
+      <c r="BS2">
+        <v>0.70520000000000005</v>
+      </c>
+      <c r="BT2">
+        <v>1.1082000000000001</v>
+      </c>
+      <c r="BU2">
+        <v>1.1679999999999999</v>
+      </c>
+      <c r="BV2">
+        <v>2.2179000000000002</v>
+      </c>
+      <c r="BW2">
+        <v>0.39279999999999998</v>
+      </c>
+      <c r="BX2">
+        <v>0.44219999999999998</v>
+      </c>
+      <c r="BY2">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="BZ2">
+        <v>0.46639999999999998</v>
+      </c>
+      <c r="CA2">
+        <v>0.5625</v>
+      </c>
+      <c r="CB2">
+        <v>0.64929999999999999</v>
+      </c>
+      <c r="CC2">
+        <v>0.64259999999999995</v>
+      </c>
+      <c r="CD2">
+        <v>0.60319999999999996</v>
+      </c>
+      <c r="CE2">
+        <v>0.69820000000000004</v>
+      </c>
+      <c r="CF2">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="CG2">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="CH2">
+        <v>1.3653</v>
+      </c>
+      <c r="CI2">
+        <v>0.45279999999999998</v>
+      </c>
+      <c r="CJ2">
+        <v>0.43319999999999997</v>
+      </c>
+      <c r="CK2">
+        <v>0.432</v>
+      </c>
+      <c r="CL2">
+        <v>0.48209999999999997</v>
+      </c>
+      <c r="CM2">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="CN2">
+        <v>0.61639999999999995</v>
+      </c>
+      <c r="CO2">
+        <v>0.52939999999999998</v>
+      </c>
+      <c r="CP2">
+        <v>0.4249</v>
+      </c>
+      <c r="CQ2">
+        <v>0.63939999999999997</v>
+      </c>
+      <c r="CR2">
+        <v>0.83550000000000002</v>
+      </c>
+      <c r="CS2">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="CT2">
+        <v>1.3168</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>26505502</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>21486972</v>
+        <v>27.5</v>
       </c>
       <c r="C3">
-        <v>4753898</v>
+        <v>0.48060000000000003</v>
       </c>
       <c r="D3">
-        <v>6964010</v>
+        <v>0.51719999999999999</v>
       </c>
       <c r="E3">
-        <v>5946100</v>
+        <v>0.49070000000000003</v>
       </c>
       <c r="F3">
-        <v>367685</v>
+        <v>0.64159999999999995</v>
       </c>
       <c r="G3">
-        <v>44451</v>
+        <v>0.67779999999999996</v>
       </c>
       <c r="H3">
-        <v>43648</v>
+        <v>0.72099999999999997</v>
       </c>
       <c r="I3">
-        <v>149049</v>
+        <v>0.92100000000000004</v>
       </c>
       <c r="J3">
-        <v>3615306</v>
+        <v>0.68959999999999999</v>
       </c>
       <c r="K3">
-        <v>19701298</v>
+        <v>0.98419999999999996</v>
       </c>
       <c r="L3">
-        <v>11205881</v>
+        <v>1.2709999999999999</v>
+      </c>
+      <c r="M3">
+        <v>1.7608999999999999</v>
+      </c>
+      <c r="N3">
+        <v>2.3313000000000001</v>
+      </c>
+      <c r="O3">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="P3">
+        <v>0.49419999999999997</v>
+      </c>
+      <c r="Q3">
+        <v>0.52190000000000003</v>
+      </c>
+      <c r="R3">
+        <v>0.67620000000000002</v>
+      </c>
+      <c r="S3">
+        <v>0.70760000000000001</v>
+      </c>
+      <c r="T3">
+        <v>0.75439999999999996</v>
+      </c>
+      <c r="U3">
+        <v>0.91359999999999997</v>
+      </c>
+      <c r="V3">
+        <v>0.69179999999999997</v>
+      </c>
+      <c r="W3">
+        <v>1.0662</v>
+      </c>
+      <c r="X3">
+        <v>1.1231</v>
+      </c>
+      <c r="Y3">
+        <v>1.9319999999999999</v>
+      </c>
+      <c r="Z3">
+        <v>2.0617999999999999</v>
+      </c>
+      <c r="AA3">
+        <v>0.37280000000000002</v>
+      </c>
+      <c r="AB3">
+        <v>0.41470000000000001</v>
+      </c>
+      <c r="AC3">
+        <v>0.48520000000000002</v>
+      </c>
+      <c r="AD3">
+        <v>0.53849999999999998</v>
+      </c>
+      <c r="AE3">
+        <v>0.62129999999999996</v>
+      </c>
+      <c r="AF3">
+        <v>0.67749999999999999</v>
+      </c>
+      <c r="AG3">
+        <v>0.77869999999999995</v>
+      </c>
+      <c r="AH3">
+        <v>0.71660000000000001</v>
+      </c>
+      <c r="AI3">
+        <v>0.82550000000000001</v>
+      </c>
+      <c r="AJ3">
+        <v>0.95630000000000004</v>
+      </c>
+      <c r="AK3">
+        <v>1.3232999999999999</v>
+      </c>
+      <c r="AL3">
+        <v>1.8161</v>
+      </c>
+      <c r="AM3">
+        <v>0.46439999999999998</v>
+      </c>
+      <c r="AN3">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="AO3">
+        <v>0.4733</v>
+      </c>
+      <c r="AP3">
+        <v>0.4718</v>
+      </c>
+      <c r="AQ3">
+        <v>0.50529999999999997</v>
+      </c>
+      <c r="AR3">
+        <v>0.96040000000000003</v>
+      </c>
+      <c r="AS3">
+        <v>0.76649999999999996</v>
+      </c>
+      <c r="AT3">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="AU3">
+        <v>0.54690000000000005</v>
+      </c>
+      <c r="AV3">
+        <v>0.59240000000000004</v>
+      </c>
+      <c r="AW3">
+        <v>0.6371</v>
+      </c>
+      <c r="AX3">
+        <v>0.62150000000000005</v>
+      </c>
+      <c r="AY3">
+        <v>0.4667</v>
+      </c>
+      <c r="AZ3">
+        <v>0.4728</v>
+      </c>
+      <c r="BA3">
+        <v>0.4945</v>
+      </c>
+      <c r="BB3">
+        <v>0.58120000000000005</v>
+      </c>
+      <c r="BC3">
+        <v>0.67379999999999995</v>
+      </c>
+      <c r="BD3">
+        <v>0.77649999999999997</v>
+      </c>
+      <c r="BE3">
+        <v>1.0468999999999999</v>
+      </c>
+      <c r="BF3">
+        <v>0.72709999999999997</v>
+      </c>
+      <c r="BG3">
+        <v>0.84250000000000003</v>
+      </c>
+      <c r="BH3">
+        <v>1.0019</v>
+      </c>
+      <c r="BI3">
+        <v>1.5321</v>
+      </c>
+      <c r="BJ3">
+        <v>2.1328</v>
+      </c>
+      <c r="BK3">
+        <v>0.49370000000000003</v>
+      </c>
+      <c r="BL3">
+        <v>0.436</v>
+      </c>
+      <c r="BM3">
+        <v>0.52049999999999996</v>
+      </c>
+      <c r="BN3">
+        <v>0.57130000000000003</v>
+      </c>
+      <c r="BO3">
+        <v>0.71840000000000004</v>
+      </c>
+      <c r="BP3">
+        <v>0.77729999999999999</v>
+      </c>
+      <c r="BQ3">
+        <v>0.79479999999999995</v>
+      </c>
+      <c r="BR3">
+        <v>0.71719999999999995</v>
+      </c>
+      <c r="BS3">
+        <v>0.72719999999999996</v>
+      </c>
+      <c r="BT3">
+        <v>1.1488</v>
+      </c>
+      <c r="BU3">
+        <v>1.1783999999999999</v>
+      </c>
+      <c r="BV3">
+        <v>2.2623000000000002</v>
+      </c>
+      <c r="BW3">
+        <v>0.44180000000000003</v>
+      </c>
+      <c r="BX3">
+        <v>0.46139999999999998</v>
+      </c>
+      <c r="BY3">
+        <v>0.4788</v>
+      </c>
+      <c r="BZ3">
+        <v>0.46939999999999998</v>
+      </c>
+      <c r="CA3">
+        <v>0.58420000000000005</v>
+      </c>
+      <c r="CB3">
+        <v>0.6613</v>
+      </c>
+      <c r="CC3">
+        <v>0.6613</v>
+      </c>
+      <c r="CD3">
+        <v>0.6411</v>
+      </c>
+      <c r="CE3">
+        <v>0.68620000000000003</v>
+      </c>
+      <c r="CF3">
+        <v>0.77</v>
+      </c>
+      <c r="CG3">
+        <v>0.63819999999999999</v>
+      </c>
+      <c r="CH3">
+        <v>1.4179999999999999</v>
+      </c>
+      <c r="CI3">
+        <v>0.48359999999999997</v>
+      </c>
+      <c r="CJ3">
+        <v>0.45090000000000002</v>
+      </c>
+      <c r="CK3">
+        <v>0.47160000000000002</v>
+      </c>
+      <c r="CL3">
+        <v>0.5071</v>
+      </c>
+      <c r="CM3">
+        <v>0.58620000000000005</v>
+      </c>
+      <c r="CN3">
+        <v>0.66769999999999996</v>
+      </c>
+      <c r="CO3">
+        <v>0.52259999999999995</v>
+      </c>
+      <c r="CP3">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="CQ3">
+        <v>0.64780000000000004</v>
+      </c>
+      <c r="CR3">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="CS3">
+        <v>1.0135000000000001</v>
+      </c>
+      <c r="CT3">
+        <v>1.4184000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>14305745</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>23084516</v>
+        <v>27.5</v>
       </c>
       <c r="C4">
-        <v>1342928</v>
+        <v>0.36259999999999998</v>
       </c>
       <c r="D4">
-        <v>3020433</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="E4">
-        <v>80816</v>
+        <v>0.37369999999999998</v>
       </c>
       <c r="F4">
-        <v>709479</v>
+        <v>0.54179999999999995</v>
       </c>
       <c r="G4">
-        <v>25588</v>
+        <v>0.57689999999999997</v>
       </c>
       <c r="H4">
-        <v>33657</v>
+        <v>0.6411</v>
       </c>
       <c r="I4">
-        <v>147553</v>
+        <v>0.86329999999999996</v>
       </c>
       <c r="J4">
-        <v>13277912</v>
+        <v>0.6714</v>
       </c>
       <c r="K4">
-        <v>31608164</v>
+        <v>0.9274</v>
       </c>
       <c r="L4">
-        <v>9636266</v>
+        <v>1.2125999999999999</v>
+      </c>
+      <c r="M4">
+        <v>1.6887000000000001</v>
+      </c>
+      <c r="N4">
+        <v>2.3119999999999998</v>
+      </c>
+      <c r="O4">
+        <v>0.52839999999999998</v>
+      </c>
+      <c r="P4">
+        <v>0.38550000000000001</v>
+      </c>
+      <c r="Q4">
+        <v>0.40389999999999998</v>
+      </c>
+      <c r="R4">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="S4">
+        <v>0.5696</v>
+      </c>
+      <c r="T4">
+        <v>0.65380000000000005</v>
+      </c>
+      <c r="U4">
+        <v>0.81940000000000002</v>
+      </c>
+      <c r="V4">
+        <v>0.59440000000000004</v>
+      </c>
+      <c r="W4">
+        <v>0.95330000000000004</v>
+      </c>
+      <c r="X4">
+        <v>1.0015000000000001</v>
+      </c>
+      <c r="Y4">
+        <v>1.8007</v>
+      </c>
+      <c r="Z4">
+        <v>1.992</v>
+      </c>
+      <c r="AA4">
+        <v>0.29570000000000002</v>
+      </c>
+      <c r="AB4">
+        <v>0.33</v>
+      </c>
+      <c r="AC4">
+        <v>0.39029999999999998</v>
+      </c>
+      <c r="AD4">
+        <v>0.43709999999999999</v>
+      </c>
+      <c r="AE4">
+        <v>0.4889</v>
+      </c>
+      <c r="AF4">
+        <v>0.56410000000000005</v>
+      </c>
+      <c r="AG4">
+        <v>0.64870000000000005</v>
+      </c>
+      <c r="AH4">
+        <v>0.6179</v>
+      </c>
+      <c r="AI4">
+        <v>0.70379999999999998</v>
+      </c>
+      <c r="AJ4">
+        <v>0.84240000000000004</v>
+      </c>
+      <c r="AK4">
+        <v>1.1792</v>
+      </c>
+      <c r="AL4">
+        <v>1.7137</v>
+      </c>
+      <c r="AM4">
+        <v>0.3115</v>
+      </c>
+      <c r="AN4">
+        <v>0.32829999999999998</v>
+      </c>
+      <c r="AO4">
+        <v>0.33739999999999998</v>
+      </c>
+      <c r="AP4">
+        <v>0.36849999999999999</v>
+      </c>
+      <c r="AQ4">
+        <v>0.34660000000000002</v>
+      </c>
+      <c r="AR4">
+        <v>0.83720000000000006</v>
+      </c>
+      <c r="AS4">
+        <v>0.66839999999999999</v>
+      </c>
+      <c r="AT4">
+        <v>0.36209999999999998</v>
+      </c>
+      <c r="AU4">
+        <v>0.39019999999999999</v>
+      </c>
+      <c r="AV4">
+        <v>0.50219999999999998</v>
+      </c>
+      <c r="AW4">
+        <v>0.51160000000000005</v>
+      </c>
+      <c r="AX4">
+        <v>0.52270000000000005</v>
+      </c>
+      <c r="AY4">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="AZ4">
+        <v>0.35630000000000001</v>
+      </c>
+      <c r="BA4">
+        <v>0.38940000000000002</v>
+      </c>
+      <c r="BB4">
+        <v>0.48220000000000002</v>
+      </c>
+      <c r="BC4">
+        <v>0.57420000000000004</v>
+      </c>
+      <c r="BD4">
+        <v>0.67659999999999998</v>
+      </c>
+      <c r="BE4">
+        <v>0.91339999999999999</v>
+      </c>
+      <c r="BF4">
+        <v>0.64970000000000006</v>
+      </c>
+      <c r="BG4">
+        <v>0.75349999999999995</v>
+      </c>
+      <c r="BH4">
+        <v>0.89480000000000004</v>
+      </c>
+      <c r="BI4">
+        <v>1.407</v>
+      </c>
+      <c r="BJ4">
+        <v>2.0118</v>
+      </c>
+      <c r="BK4">
+        <v>0.34689999999999999</v>
+      </c>
+      <c r="BL4">
+        <v>0.36080000000000001</v>
+      </c>
+      <c r="BM4">
+        <v>0.41210000000000002</v>
+      </c>
+      <c r="BN4">
+        <v>0.44040000000000001</v>
+      </c>
+      <c r="BO4">
+        <v>0.55179999999999996</v>
+      </c>
+      <c r="BP4">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="BQ4">
+        <v>0.69610000000000005</v>
+      </c>
+      <c r="BR4">
+        <v>0.59630000000000005</v>
+      </c>
+      <c r="BS4">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="BT4">
+        <v>0.99739999999999995</v>
+      </c>
+      <c r="BU4">
+        <v>1.0546</v>
+      </c>
+      <c r="BV4">
+        <v>2.1160000000000001</v>
+      </c>
+      <c r="BW4">
+        <v>0.307</v>
+      </c>
+      <c r="BX4">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="BY4">
+        <v>0.36849999999999999</v>
+      </c>
+      <c r="BZ4">
+        <v>0.38</v>
+      </c>
+      <c r="CA4">
+        <v>0.4637</v>
+      </c>
+      <c r="CB4">
+        <v>0.55320000000000003</v>
+      </c>
+      <c r="CC4">
+        <v>0.53739999999999999</v>
+      </c>
+      <c r="CD4">
+        <v>0.49769999999999998</v>
+      </c>
+      <c r="CE4">
+        <v>0.58420000000000005</v>
+      </c>
+      <c r="CF4">
+        <v>0.63819999999999999</v>
+      </c>
+      <c r="CG4">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="CH4">
+        <v>1.2834000000000001</v>
+      </c>
+      <c r="CI4">
+        <v>0.3402</v>
+      </c>
+      <c r="CJ4">
+        <v>0.33829999999999999</v>
+      </c>
+      <c r="CK4">
+        <v>0.33110000000000001</v>
+      </c>
+      <c r="CL4">
+        <v>0.37980000000000003</v>
+      </c>
+      <c r="CM4">
+        <v>0.42270000000000002</v>
+      </c>
+      <c r="CN4">
+        <v>0.51180000000000003</v>
+      </c>
+      <c r="CO4">
+        <v>0.40539999999999998</v>
+      </c>
+      <c r="CP4">
+        <v>0.32169999999999999</v>
+      </c>
+      <c r="CQ4">
+        <v>0.52429999999999999</v>
+      </c>
+      <c r="CR4">
+        <v>0.74650000000000005</v>
+      </c>
+      <c r="CS4">
+        <v>0.91510000000000002</v>
+      </c>
+      <c r="CT4">
+        <v>1.2718</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>15459188</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>15116507</v>
+        <v>27.5</v>
       </c>
       <c r="C5">
-        <v>2052519</v>
+        <v>0.52010000000000001</v>
       </c>
       <c r="D5">
-        <v>3977540</v>
+        <v>0.60429999999999995</v>
       </c>
       <c r="E5">
-        <v>295332</v>
+        <v>0.59809999999999997</v>
       </c>
       <c r="F5">
-        <v>312572</v>
+        <v>0.72609999999999997</v>
       </c>
       <c r="G5">
-        <v>85464</v>
+        <v>0.78190000000000004</v>
       </c>
       <c r="H5">
-        <v>29346</v>
+        <v>0.90429999999999999</v>
       </c>
       <c r="I5">
-        <v>265606</v>
+        <v>1.2181</v>
       </c>
       <c r="J5">
-        <v>11111430</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="K5">
-        <v>6664200</v>
+        <v>1.2579</v>
       </c>
       <c r="L5">
-        <v>207755</v>
+        <v>1.6327</v>
+      </c>
+      <c r="M5">
+        <v>2.1675</v>
+      </c>
+      <c r="N5">
+        <v>2.9525999999999999</v>
+      </c>
+      <c r="O5">
+        <v>0.66159999999999997</v>
+      </c>
+      <c r="P5">
+        <v>0.58079999999999998</v>
+      </c>
+      <c r="Q5">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="R5">
+        <v>0.76249999999999996</v>
+      </c>
+      <c r="S5">
+        <v>0.93889999999999996</v>
+      </c>
+      <c r="T5">
+        <v>0.88219999999999998</v>
+      </c>
+      <c r="U5">
+        <v>1.08</v>
+      </c>
+      <c r="V5">
+        <v>0.86050000000000004</v>
+      </c>
+      <c r="W5">
+        <v>1.2275</v>
+      </c>
+      <c r="X5">
+        <v>1.3282</v>
+      </c>
+      <c r="Y5">
+        <v>2.5375999999999999</v>
+      </c>
+      <c r="Z5">
+        <v>2.6107</v>
+      </c>
+      <c r="AA5">
+        <v>0.44879999999999998</v>
+      </c>
+      <c r="AB5">
+        <v>0.4879</v>
+      </c>
+      <c r="AC5">
+        <v>0.54749999999999999</v>
+      </c>
+      <c r="AD5">
+        <v>0.60389999999999999</v>
+      </c>
+      <c r="AE5">
+        <v>0.68149999999999999</v>
+      </c>
+      <c r="AF5">
+        <v>0.7621</v>
+      </c>
+      <c r="AG5">
+        <v>0.85119999999999996</v>
+      </c>
+      <c r="AH5">
+        <v>0.8306</v>
+      </c>
+      <c r="AI5">
+        <v>0.92210000000000003</v>
+      </c>
+      <c r="AJ5">
+        <v>1.0682</v>
+      </c>
+      <c r="AK5">
+        <v>1.4717</v>
+      </c>
+      <c r="AL5">
+        <v>2.0718999999999999</v>
+      </c>
+      <c r="AM5">
+        <v>0.56779999999999997</v>
+      </c>
+      <c r="AN5">
+        <v>0.5786</v>
+      </c>
+      <c r="AO5">
+        <v>0.63839999999999997</v>
+      </c>
+      <c r="AP5">
+        <v>0.6179</v>
+      </c>
+      <c r="AQ5">
+        <v>0.64859999999999995</v>
+      </c>
+      <c r="AR5">
+        <v>1.1011</v>
+      </c>
+      <c r="AS5">
+        <v>1.1017999999999999</v>
+      </c>
+      <c r="AT5">
+        <v>0.57179999999999997</v>
+      </c>
+      <c r="AU5">
+        <v>0.7339</v>
+      </c>
+      <c r="AV5">
+        <v>0.82269999999999999</v>
+      </c>
+      <c r="AW5">
+        <v>0.88780000000000003</v>
+      </c>
+      <c r="AX5">
+        <v>1.1677</v>
+      </c>
+      <c r="AY5">
+        <v>0.48110000000000003</v>
+      </c>
+      <c r="AZ5">
+        <v>0.54359999999999997</v>
+      </c>
+      <c r="BA5">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="BB5">
+        <v>0.66569999999999996</v>
+      </c>
+      <c r="BC5">
+        <v>0.76249999999999996</v>
+      </c>
+      <c r="BD5">
+        <v>0.89610000000000001</v>
+      </c>
+      <c r="BE5">
+        <v>1.1088</v>
+      </c>
+      <c r="BF5">
+        <v>0.84730000000000005</v>
+      </c>
+      <c r="BG5">
+        <v>0.97619999999999996</v>
+      </c>
+      <c r="BH5">
+        <v>1.1454</v>
+      </c>
+      <c r="BI5">
+        <v>1.7085999999999999</v>
+      </c>
+      <c r="BJ5">
+        <v>2.3698999999999999</v>
+      </c>
+      <c r="BK5">
+        <v>0.53669999999999995</v>
+      </c>
+      <c r="BL5">
+        <v>0.52980000000000005</v>
+      </c>
+      <c r="BM5">
+        <v>0.57679999999999998</v>
+      </c>
+      <c r="BN5">
+        <v>0.62150000000000005</v>
+      </c>
+      <c r="BO5">
+        <v>0.74</v>
+      </c>
+      <c r="BP5">
+        <v>0.84909999999999997</v>
+      </c>
+      <c r="BQ5">
+        <v>0.90280000000000005</v>
+      </c>
+      <c r="BR5">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="BS5">
+        <v>0.82110000000000005</v>
+      </c>
+      <c r="BT5">
+        <v>1.2326999999999999</v>
+      </c>
+      <c r="BU5">
+        <v>1.3127</v>
+      </c>
+      <c r="BV5">
+        <v>2.5110999999999999</v>
+      </c>
+      <c r="BW5">
+        <v>0.47189999999999999</v>
+      </c>
+      <c r="BX5">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="BY5">
+        <v>0.53879999999999995</v>
+      </c>
+      <c r="BZ5">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="CA5">
+        <v>0.61770000000000003</v>
+      </c>
+      <c r="CB5">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="CC5">
+        <v>0.70879999999999999</v>
+      </c>
+      <c r="CD5">
+        <v>0.6724</v>
+      </c>
+      <c r="CE5">
+        <v>0.76759999999999995</v>
+      </c>
+      <c r="CF5">
+        <v>0.83679999999999999</v>
+      </c>
+      <c r="CG5">
+        <v>0.72960000000000003</v>
+      </c>
+      <c r="CH5">
+        <v>1.5666</v>
+      </c>
+      <c r="CI5">
+        <v>0.50990000000000002</v>
+      </c>
+      <c r="CJ5">
+        <v>0.50360000000000005</v>
+      </c>
+      <c r="CK5">
+        <v>0.50529999999999997</v>
+      </c>
+      <c r="CL5">
+        <v>0.5423</v>
+      </c>
+      <c r="CM5">
+        <v>0.59609999999999996</v>
+      </c>
+      <c r="CN5">
+        <v>0.71530000000000005</v>
+      </c>
+      <c r="CO5">
+        <v>0.58840000000000003</v>
+      </c>
+      <c r="CP5">
+        <v>0.48110000000000003</v>
+      </c>
+      <c r="CQ5">
+        <v>0.71209999999999996</v>
+      </c>
+      <c r="CR5">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="CS5">
+        <v>1.1365000000000001</v>
+      </c>
+      <c r="CT5">
+        <v>1.5644</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>21319462</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>16434632</v>
+        <v>27.5</v>
       </c>
       <c r="C6">
-        <v>2320363</v>
+        <v>0.69610000000000005</v>
       </c>
       <c r="D6">
-        <v>5770888</v>
+        <v>0.74119999999999997</v>
       </c>
       <c r="E6">
-        <v>518265</v>
+        <v>0.7248</v>
       </c>
       <c r="F6">
-        <v>368226</v>
+        <v>0.85140000000000005</v>
       </c>
       <c r="G6">
-        <v>55638</v>
+        <v>0.93400000000000005</v>
       </c>
       <c r="H6">
-        <v>28955</v>
+        <v>1.0568</v>
       </c>
       <c r="I6">
-        <v>269836</v>
+        <v>1.2985</v>
       </c>
       <c r="J6">
-        <v>12499758</v>
+        <v>1.0632999999999999</v>
       </c>
       <c r="K6">
-        <v>14378594</v>
+        <v>1.3797999999999999</v>
       </c>
       <c r="L6">
-        <v>3482932</v>
+        <v>1.7356</v>
+      </c>
+      <c r="M6">
+        <v>2.29</v>
+      </c>
+      <c r="N6">
+        <v>3.0676999999999999</v>
+      </c>
+      <c r="O6">
+        <v>0.71509999999999996</v>
+      </c>
+      <c r="P6">
+        <v>0.71150000000000002</v>
+      </c>
+      <c r="Q6">
+        <v>0.7339</v>
+      </c>
+      <c r="R6">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="S6">
+        <v>1.0704</v>
+      </c>
+      <c r="T6">
+        <v>1.016</v>
+      </c>
+      <c r="U6">
+        <v>1.2215</v>
+      </c>
+      <c r="V6">
+        <v>1.0016</v>
+      </c>
+      <c r="W6">
+        <v>1.3712</v>
+      </c>
+      <c r="X6">
+        <v>1.4911000000000001</v>
+      </c>
+      <c r="Y6">
+        <v>2.6625999999999999</v>
+      </c>
+      <c r="Z6">
+        <v>2.7852999999999999</v>
+      </c>
+      <c r="AA6">
+        <v>0.58750000000000002</v>
+      </c>
+      <c r="AB6">
+        <v>0.63339999999999996</v>
+      </c>
+      <c r="AC6">
+        <v>0.67269999999999996</v>
+      </c>
+      <c r="AD6">
+        <v>0.71640000000000004</v>
+      </c>
+      <c r="AE6">
+        <v>0.81059999999999999</v>
+      </c>
+      <c r="AF6">
+        <v>0.89780000000000004</v>
+      </c>
+      <c r="AG6">
+        <v>0.98370000000000002</v>
+      </c>
+      <c r="AH6">
+        <v>0.98089999999999999</v>
+      </c>
+      <c r="AI6">
+        <v>1.0689</v>
+      </c>
+      <c r="AJ6">
+        <v>1.2161</v>
+      </c>
+      <c r="AK6">
+        <v>1.6165</v>
+      </c>
+      <c r="AL6">
+        <v>2.2320000000000002</v>
+      </c>
+      <c r="AM6">
+        <v>0.72940000000000005</v>
+      </c>
+      <c r="AN6">
+        <v>0.73250000000000004</v>
+      </c>
+      <c r="AO6">
+        <v>0.75529999999999997</v>
+      </c>
+      <c r="AP6">
+        <v>0.79549999999999998</v>
+      </c>
+      <c r="AQ6">
+        <v>0.80359999999999998</v>
+      </c>
+      <c r="AR6">
+        <v>1.2350000000000001</v>
+      </c>
+      <c r="AS6">
+        <v>1.1721999999999999</v>
+      </c>
+      <c r="AT6">
+        <v>0.74229999999999996</v>
+      </c>
+      <c r="AU6">
+        <v>0.91520000000000001</v>
+      </c>
+      <c r="AV6">
+        <v>1.0078</v>
+      </c>
+      <c r="AW6">
+        <v>1.0782</v>
+      </c>
+      <c r="AX6">
+        <v>1.3938999999999999</v>
+      </c>
+      <c r="AY6">
+        <v>0.62290000000000001</v>
+      </c>
+      <c r="AZ6">
+        <v>0.68840000000000001</v>
+      </c>
+      <c r="BA6">
+        <v>0.69730000000000003</v>
+      </c>
+      <c r="BB6">
+        <v>0.7984</v>
+      </c>
+      <c r="BC6">
+        <v>0.87729999999999997</v>
+      </c>
+      <c r="BD6">
+        <v>1.04</v>
+      </c>
+      <c r="BE6">
+        <v>1.2408999999999999</v>
+      </c>
+      <c r="BF6">
+        <v>0.97940000000000005</v>
+      </c>
+      <c r="BG6">
+        <v>1.1147</v>
+      </c>
+      <c r="BH6">
+        <v>1.3122</v>
+      </c>
+      <c r="BI6">
+        <v>1.8791</v>
+      </c>
+      <c r="BJ6">
+        <v>2.5743</v>
+      </c>
+      <c r="BK6">
+        <v>0.64880000000000004</v>
+      </c>
+      <c r="BL6">
+        <v>0.68179999999999996</v>
+      </c>
+      <c r="BM6">
+        <v>0.72719999999999996</v>
+      </c>
+      <c r="BN6">
+        <v>0.76670000000000005</v>
+      </c>
+      <c r="BO6">
+        <v>0.9294</v>
+      </c>
+      <c r="BP6">
+        <v>1.0438000000000001</v>
+      </c>
+      <c r="BQ6">
+        <v>1.0227999999999999</v>
+      </c>
+      <c r="BR6">
+        <v>0.94630000000000003</v>
+      </c>
+      <c r="BS6">
+        <v>0.96430000000000005</v>
+      </c>
+      <c r="BT6">
+        <v>1.4120999999999999</v>
+      </c>
+      <c r="BU6">
+        <v>1.4448000000000001</v>
+      </c>
+      <c r="BV6">
+        <v>2.6709999999999998</v>
+      </c>
+      <c r="BW6">
+        <v>0.60470000000000002</v>
+      </c>
+      <c r="BX6">
+        <v>0.6341</v>
+      </c>
+      <c r="BY6">
+        <v>0.63749999999999996</v>
+      </c>
+      <c r="BZ6">
+        <v>0.65310000000000001</v>
+      </c>
+      <c r="CA6">
+        <v>0.74750000000000005</v>
+      </c>
+      <c r="CB6">
+        <v>0.84570000000000001</v>
+      </c>
+      <c r="CC6">
+        <v>0.84009999999999996</v>
+      </c>
+      <c r="CD6">
+        <v>0.78129999999999999</v>
+      </c>
+      <c r="CE6">
+        <v>0.88880000000000003</v>
+      </c>
+      <c r="CF6">
+        <v>0.98640000000000005</v>
+      </c>
+      <c r="CG6">
+        <v>0.89049999999999996</v>
+      </c>
+      <c r="CH6">
+        <v>1.7153</v>
+      </c>
+      <c r="CI6">
+        <v>0.59870000000000001</v>
+      </c>
+      <c r="CJ6">
+        <v>0.63119999999999998</v>
+      </c>
+      <c r="CK6">
+        <v>0.63470000000000004</v>
+      </c>
+      <c r="CL6">
+        <v>0.67959999999999998</v>
+      </c>
+      <c r="CM6">
+        <v>0.73170000000000002</v>
+      </c>
+      <c r="CN6">
+        <v>0.84319999999999995</v>
+      </c>
+      <c r="CO6">
+        <v>0.6905</v>
+      </c>
+      <c r="CP6">
+        <v>0.61060000000000003</v>
+      </c>
+      <c r="CQ6">
+        <v>0.86409999999999998</v>
+      </c>
+      <c r="CR6">
+        <v>1.1403000000000001</v>
+      </c>
+      <c r="CS6">
+        <v>1.2849999999999999</v>
+      </c>
+      <c r="CT6">
+        <v>1.7944</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>13686448</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>10620722</v>
+        <v>27.5</v>
       </c>
       <c r="C7">
-        <v>1295351</v>
+        <v>0.50770000000000004</v>
       </c>
       <c r="D7">
-        <v>2775022</v>
+        <v>0.55659999999999998</v>
       </c>
       <c r="E7">
-        <v>1390161</v>
+        <v>0.50939999999999996</v>
       </c>
       <c r="F7">
-        <v>285739</v>
+        <v>0.74719999999999998</v>
       </c>
       <c r="G7">
-        <v>41490</v>
+        <v>0.73150000000000004</v>
       </c>
       <c r="H7">
-        <v>31824</v>
+        <v>0.77290000000000003</v>
       </c>
       <c r="I7">
-        <v>355754</v>
+        <v>0.97199999999999998</v>
       </c>
       <c r="J7">
-        <v>12082840</v>
+        <v>0.81620000000000004</v>
       </c>
       <c r="K7">
-        <v>2539676</v>
+        <v>1.0739000000000001</v>
       </c>
       <c r="L7">
-        <v>1250261</v>
+        <v>1.2986</v>
+      </c>
+      <c r="M7">
+        <v>1.8314999999999999</v>
+      </c>
+      <c r="N7">
+        <v>2.4510000000000001</v>
+      </c>
+      <c r="O7">
+        <v>0.92220000000000002</v>
+      </c>
+      <c r="P7">
+        <v>0.5736</v>
+      </c>
+      <c r="Q7">
+        <v>0.65480000000000005</v>
+      </c>
+      <c r="R7">
+        <v>0.78120000000000001</v>
+      </c>
+      <c r="S7">
+        <v>0.77729999999999999</v>
+      </c>
+      <c r="T7">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="U7">
+        <v>1.0362</v>
+      </c>
+      <c r="V7">
+        <v>0.78459999999999996</v>
+      </c>
+      <c r="W7">
+        <v>1.1177999999999999</v>
+      </c>
+      <c r="X7">
+        <v>1.1943999999999999</v>
+      </c>
+      <c r="Y7">
+        <v>2.0001000000000002</v>
+      </c>
+      <c r="Z7">
+        <v>2.2162000000000002</v>
+      </c>
+      <c r="AA7">
+        <v>0.3967</v>
+      </c>
+      <c r="AB7">
+        <v>0.47420000000000001</v>
+      </c>
+      <c r="AC7">
+        <v>0.55289999999999995</v>
+      </c>
+      <c r="AD7">
+        <v>0.6089</v>
+      </c>
+      <c r="AE7">
+        <v>0.68369999999999997</v>
+      </c>
+      <c r="AF7">
+        <v>0.73909999999999998</v>
+      </c>
+      <c r="AG7">
+        <v>0.83620000000000005</v>
+      </c>
+      <c r="AH7">
+        <v>0.79039999999999999</v>
+      </c>
+      <c r="AI7">
+        <v>0.88949999999999996</v>
+      </c>
+      <c r="AJ7">
+        <v>1.0302</v>
+      </c>
+      <c r="AK7">
+        <v>1.407</v>
+      </c>
+      <c r="AL7">
+        <v>1.9005000000000001</v>
+      </c>
+      <c r="AM7">
+        <v>0.50919999999999999</v>
+      </c>
+      <c r="AN7">
+        <v>0.503</v>
+      </c>
+      <c r="AO7">
+        <v>0.53280000000000005</v>
+      </c>
+      <c r="AP7">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="AQ7">
+        <v>0.56920000000000004</v>
+      </c>
+      <c r="AR7">
+        <v>0.98180000000000001</v>
+      </c>
+      <c r="AS7">
+        <v>1.0606</v>
+      </c>
+      <c r="AT7">
+        <v>0.5333</v>
+      </c>
+      <c r="AU7">
+        <v>0.62829999999999997</v>
+      </c>
+      <c r="AV7">
+        <v>0.66479999999999995</v>
+      </c>
+      <c r="AW7">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="AX7">
+        <v>0.71140000000000003</v>
+      </c>
+      <c r="AY7">
+        <v>0.51280000000000003</v>
+      </c>
+      <c r="AZ7">
+        <v>0.55720000000000003</v>
+      </c>
+      <c r="BA7">
+        <v>0.56789999999999996</v>
+      </c>
+      <c r="BB7">
+        <v>0.65380000000000005</v>
+      </c>
+      <c r="BC7">
+        <v>0.72870000000000001</v>
+      </c>
+      <c r="BD7">
+        <v>0.85209999999999997</v>
+      </c>
+      <c r="BE7">
+        <v>1.1086</v>
+      </c>
+      <c r="BF7">
+        <v>0.78990000000000005</v>
+      </c>
+      <c r="BG7">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="BH7">
+        <v>1.0808</v>
+      </c>
+      <c r="BI7">
+        <v>1.5974999999999999</v>
+      </c>
+      <c r="BJ7">
+        <v>2.2222</v>
+      </c>
+      <c r="BK7">
+        <v>0.50690000000000002</v>
+      </c>
+      <c r="BL7">
+        <v>0.56920000000000004</v>
+      </c>
+      <c r="BM7">
+        <v>0.63859999999999995</v>
+      </c>
+      <c r="BN7">
+        <v>0.63390000000000002</v>
+      </c>
+      <c r="BO7">
+        <v>0.7792</v>
+      </c>
+      <c r="BP7">
+        <v>0.93720000000000003</v>
+      </c>
+      <c r="BQ7">
+        <v>0.85619999999999996</v>
+      </c>
+      <c r="BR7">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="BS7">
+        <v>0.82369999999999999</v>
+      </c>
+      <c r="BT7">
+        <v>1.2544999999999999</v>
+      </c>
+      <c r="BU7">
+        <v>1.2044999999999999</v>
+      </c>
+      <c r="BV7">
+        <v>2.3372999999999999</v>
+      </c>
+      <c r="BW7">
+        <v>0.5252</v>
+      </c>
+      <c r="BX7">
+        <v>0.56720000000000004</v>
+      </c>
+      <c r="BY7">
+        <v>0.56130000000000002</v>
+      </c>
+      <c r="BZ7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="CA7">
+        <v>0.65959999999999996</v>
+      </c>
+      <c r="CB7">
+        <v>0.75649999999999995</v>
+      </c>
+      <c r="CC7">
+        <v>0.73229999999999995</v>
+      </c>
+      <c r="CD7">
+        <v>0.69140000000000001</v>
+      </c>
+      <c r="CE7">
+        <v>0.79749999999999999</v>
+      </c>
+      <c r="CF7">
+        <v>0.83630000000000004</v>
+      </c>
+      <c r="CG7">
+        <v>0.74170000000000003</v>
+      </c>
+      <c r="CH7">
+        <v>1.4319999999999999</v>
+      </c>
+      <c r="CI7">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="CJ7">
+        <v>0.55720000000000003</v>
+      </c>
+      <c r="CK7">
+        <v>0.56030000000000002</v>
+      </c>
+      <c r="CL7">
+        <v>0.59919999999999995</v>
+      </c>
+      <c r="CM7">
+        <v>0.71640000000000004</v>
+      </c>
+      <c r="CN7">
+        <v>0.76459999999999995</v>
+      </c>
+      <c r="CO7">
+        <v>0.63480000000000003</v>
+      </c>
+      <c r="CP7">
+        <v>0.54530000000000001</v>
+      </c>
+      <c r="CQ7">
+        <v>0.77159999999999995</v>
+      </c>
+      <c r="CR7">
+        <v>1.0037</v>
+      </c>
+      <c r="CS7">
+        <v>1.1569</v>
+      </c>
+      <c r="CT7">
+        <v>1.5065</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>14129475</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>13286830</v>
+        <v>27.5</v>
       </c>
       <c r="C8">
-        <v>1495447</v>
+        <v>0.31430000000000002</v>
       </c>
       <c r="D8">
-        <v>3442097</v>
+        <v>0.35949999999999999</v>
       </c>
       <c r="E8">
-        <v>1197792</v>
+        <v>0.35560000000000003</v>
       </c>
       <c r="F8">
-        <v>353577</v>
+        <v>0.50760000000000005</v>
       </c>
       <c r="G8">
-        <v>50923</v>
+        <v>0.52739999999999998</v>
       </c>
       <c r="H8">
-        <v>30985</v>
+        <v>0.59740000000000004</v>
       </c>
       <c r="I8">
-        <v>372231</v>
+        <v>0.84760000000000002</v>
       </c>
       <c r="J8">
-        <v>20194544</v>
+        <v>0.64949999999999997</v>
       </c>
       <c r="K8">
-        <v>6502320</v>
+        <v>0.89280000000000004</v>
       </c>
       <c r="L8">
-        <v>2556302</v>
+        <v>1.2084999999999999</v>
+      </c>
+      <c r="M8">
+        <v>1.6609</v>
+      </c>
+      <c r="N8">
+        <v>2.2930000000000001</v>
+      </c>
+      <c r="O8">
+        <v>0.50660000000000005</v>
+      </c>
+      <c r="P8">
+        <v>0.33910000000000001</v>
+      </c>
+      <c r="Q8">
+        <v>0.40720000000000001</v>
+      </c>
+      <c r="R8">
+        <v>0.52569999999999995</v>
+      </c>
+      <c r="S8">
+        <v>0.54239999999999999</v>
+      </c>
+      <c r="T8">
+        <v>0.62890000000000001</v>
+      </c>
+      <c r="U8">
+        <v>0.77959999999999996</v>
+      </c>
+      <c r="V8">
+        <v>0.56040000000000001</v>
+      </c>
+      <c r="W8">
+        <v>0.92420000000000002</v>
+      </c>
+      <c r="X8">
+        <v>0.9657</v>
+      </c>
+      <c r="Y8">
+        <v>1.7941</v>
+      </c>
+      <c r="Z8">
+        <v>1.9857</v>
+      </c>
+      <c r="AA8">
+        <v>0.26629999999999998</v>
+      </c>
+      <c r="AB8">
+        <v>0.28820000000000001</v>
+      </c>
+      <c r="AC8">
+        <v>0.35349999999999998</v>
+      </c>
+      <c r="AD8">
+        <v>0.44040000000000001</v>
+      </c>
+      <c r="AE8">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="AF8">
+        <v>0.52690000000000003</v>
+      </c>
+      <c r="AG8">
+        <v>0.60129999999999995</v>
+      </c>
+      <c r="AH8">
+        <v>0.5756</v>
+      </c>
+      <c r="AI8">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="AJ8">
+        <v>0.81269999999999998</v>
+      </c>
+      <c r="AK8">
+        <v>1.1462000000000001</v>
+      </c>
+      <c r="AL8">
+        <v>1.7032</v>
+      </c>
+      <c r="AM8">
+        <v>0.28039999999999998</v>
+      </c>
+      <c r="AN8">
+        <v>0.28720000000000001</v>
+      </c>
+      <c r="AO8">
+        <v>0.30830000000000002</v>
+      </c>
+      <c r="AP8">
+        <v>0.37880000000000003</v>
+      </c>
+      <c r="AQ8">
+        <v>0.3261</v>
+      </c>
+      <c r="AR8">
+        <v>0.80930000000000002</v>
+      </c>
+      <c r="AS8">
+        <v>0.68559999999999999</v>
+      </c>
+      <c r="AT8">
+        <v>0.3014</v>
+      </c>
+      <c r="AU8">
+        <v>0.38429999999999997</v>
+      </c>
+      <c r="AV8">
+        <v>0.46839999999999998</v>
+      </c>
+      <c r="AW8">
+        <v>0.48749999999999999</v>
+      </c>
+      <c r="AX8">
+        <v>0.50949999999999995</v>
+      </c>
+      <c r="AY8">
+        <v>0.28539999999999999</v>
+      </c>
+      <c r="AZ8">
+        <v>0.3236</v>
+      </c>
+      <c r="BA8">
+        <v>0.36280000000000001</v>
+      </c>
+      <c r="BB8">
+        <v>0.44419999999999998</v>
+      </c>
+      <c r="BC8">
+        <v>0.54010000000000002</v>
+      </c>
+      <c r="BD8">
+        <v>0.64659999999999995</v>
+      </c>
+      <c r="BE8">
+        <v>0.89290000000000003</v>
+      </c>
+      <c r="BF8">
+        <v>0.61519999999999997</v>
+      </c>
+      <c r="BG8">
+        <v>0.72860000000000003</v>
+      </c>
+      <c r="BH8">
+        <v>0.88139999999999996</v>
+      </c>
+      <c r="BI8">
+        <v>1.3855999999999999</v>
+      </c>
+      <c r="BJ8">
+        <v>1.9854000000000001</v>
+      </c>
+      <c r="BK8">
+        <v>0.30570000000000003</v>
+      </c>
+      <c r="BL8">
+        <v>0.32850000000000001</v>
+      </c>
+      <c r="BM8">
+        <v>0.40089999999999998</v>
+      </c>
+      <c r="BN8">
+        <v>0.40150000000000002</v>
+      </c>
+      <c r="BO8">
+        <v>0.51529999999999998</v>
+      </c>
+      <c r="BP8">
+        <v>0.62470000000000003</v>
+      </c>
+      <c r="BQ8">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="BR8">
+        <v>0.5675</v>
+      </c>
+      <c r="BS8">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="BT8">
+        <v>0.97350000000000003</v>
+      </c>
+      <c r="BU8">
+        <v>1.0282</v>
+      </c>
+      <c r="BV8">
+        <v>2.0948000000000002</v>
+      </c>
+      <c r="BW8">
+        <v>0.29580000000000001</v>
+      </c>
+      <c r="BX8">
+        <v>0.30890000000000001</v>
+      </c>
+      <c r="BY8">
+        <v>0.35759999999999997</v>
+      </c>
+      <c r="BZ8">
+        <v>0.3841</v>
+      </c>
+      <c r="CA8">
+        <v>0.43409999999999999</v>
+      </c>
+      <c r="CB8">
+        <v>0.53449999999999998</v>
+      </c>
+      <c r="CC8">
+        <v>0.51990000000000003</v>
+      </c>
+      <c r="CD8">
+        <v>0.47839999999999999</v>
+      </c>
+      <c r="CE8">
+        <v>0.5635</v>
+      </c>
+      <c r="CF8">
+        <v>0.60640000000000005</v>
+      </c>
+      <c r="CG8">
+        <v>0.53010000000000002</v>
+      </c>
+      <c r="CH8">
+        <v>1.2743</v>
+      </c>
+      <c r="CI8">
+        <v>0.29720000000000002</v>
+      </c>
+      <c r="CJ8">
+        <v>0.31890000000000002</v>
+      </c>
+      <c r="CK8">
+        <v>0.33739999999999998</v>
+      </c>
+      <c r="CL8">
+        <v>0.38329999999999997</v>
+      </c>
+      <c r="CM8">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="CN8">
+        <v>0.54</v>
+      </c>
+      <c r="CO8">
+        <v>0.36969999999999997</v>
+      </c>
+      <c r="CP8">
+        <v>0.30969999999999998</v>
+      </c>
+      <c r="CQ8">
+        <v>0.51619999999999999</v>
+      </c>
+      <c r="CR8">
+        <v>0.75349999999999995</v>
+      </c>
+      <c r="CS8">
+        <v>0.9042</v>
+      </c>
+      <c r="CT8">
+        <v>1.2873000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>27.5</v>
+      </c>
+      <c r="C9">
+        <v>0.43890000000000001</v>
+      </c>
+      <c r="D9">
+        <v>0.4788</v>
+      </c>
+      <c r="E9">
+        <v>0.51280000000000003</v>
+      </c>
+      <c r="F9">
+        <v>0.62539999999999996</v>
+      </c>
+      <c r="G9">
+        <v>0.66820000000000002</v>
+      </c>
+      <c r="H9">
+        <v>0.81659999999999999</v>
+      </c>
+      <c r="I9">
+        <v>1.1475</v>
+      </c>
+      <c r="J9">
+        <v>0.87160000000000004</v>
+      </c>
+      <c r="K9">
+        <v>1.1472</v>
+      </c>
+      <c r="L9">
+        <v>1.5828</v>
+      </c>
+      <c r="M9">
+        <v>2.0758000000000001</v>
+      </c>
+      <c r="N9">
+        <v>2.8643000000000001</v>
+      </c>
+      <c r="O9">
+        <v>0.57850000000000001</v>
+      </c>
+      <c r="P9">
+        <v>0.4819</v>
+      </c>
+      <c r="Q9">
+        <v>0.57979999999999998</v>
+      </c>
+      <c r="R9">
+        <v>0.67490000000000006</v>
+      </c>
+      <c r="S9">
+        <v>0.84970000000000001</v>
+      </c>
+      <c r="T9">
+        <v>0.80610000000000004</v>
+      </c>
+      <c r="U9">
+        <v>1.0309999999999999</v>
+      </c>
+      <c r="V9">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="W9">
+        <v>1.1500999999999999</v>
+      </c>
+      <c r="X9">
+        <v>1.2384999999999999</v>
+      </c>
+      <c r="Y9">
+        <v>2.4398</v>
+      </c>
+      <c r="Z9">
+        <v>2.5533000000000001</v>
+      </c>
+      <c r="AA9">
+        <v>0.3841</v>
+      </c>
+      <c r="AB9">
+        <v>0.41320000000000001</v>
+      </c>
+      <c r="AC9">
+        <v>0.46939999999999998</v>
+      </c>
+      <c r="AD9">
+        <v>0.53129999999999999</v>
+      </c>
+      <c r="AE9">
+        <v>0.59730000000000005</v>
+      </c>
+      <c r="AF9">
+        <v>0.66949999999999998</v>
+      </c>
+      <c r="AG9">
+        <v>0.75519999999999998</v>
+      </c>
+      <c r="AH9">
+        <v>0.73409999999999997</v>
+      </c>
+      <c r="AI9">
+        <v>0.8377</v>
+      </c>
+      <c r="AJ9">
+        <v>0.98709999999999998</v>
+      </c>
+      <c r="AK9">
+        <v>1.3877999999999999</v>
+      </c>
+      <c r="AL9">
+        <v>2.0072999999999999</v>
+      </c>
+      <c r="AM9">
+        <v>0.46860000000000002</v>
+      </c>
+      <c r="AN9">
+        <v>0.47120000000000001</v>
+      </c>
+      <c r="AO9">
+        <v>0.49580000000000002</v>
+      </c>
+      <c r="AP9">
+        <v>0.5625</v>
+      </c>
+      <c r="AQ9">
+        <v>0.54079999999999995</v>
+      </c>
+      <c r="AR9">
+        <v>1.0287999999999999</v>
+      </c>
+      <c r="AS9">
+        <v>1.1408</v>
+      </c>
+      <c r="AT9">
+        <v>0.46439999999999998</v>
+      </c>
+      <c r="AU9">
+        <v>0.63570000000000004</v>
+      </c>
+      <c r="AV9">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="AW9">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="AX9">
+        <v>1.1213</v>
+      </c>
+      <c r="AY9">
+        <v>0.39660000000000001</v>
+      </c>
+      <c r="AZ9">
+        <v>0.4486</v>
+      </c>
+      <c r="BA9">
+        <v>0.49180000000000001</v>
+      </c>
+      <c r="BB9">
+        <v>0.57169999999999999</v>
+      </c>
+      <c r="BC9">
+        <v>0.67869999999999997</v>
+      </c>
+      <c r="BD9">
+        <v>0.82979999999999998</v>
+      </c>
+      <c r="BE9">
+        <v>1.0101</v>
+      </c>
+      <c r="BF9">
+        <v>0.76900000000000002</v>
+      </c>
+      <c r="BG9">
+        <v>0.90069999999999995</v>
+      </c>
+      <c r="BH9">
+        <v>1.0733999999999999</v>
+      </c>
+      <c r="BI9">
+        <v>1.6393</v>
+      </c>
+      <c r="BJ9">
+        <v>2.3325999999999998</v>
+      </c>
+      <c r="BK9">
+        <v>0.443</v>
+      </c>
+      <c r="BL9">
+        <v>0.47310000000000002</v>
+      </c>
+      <c r="BM9">
+        <v>0.50490000000000002</v>
+      </c>
+      <c r="BN9">
+        <v>0.51419999999999999</v>
+      </c>
+      <c r="BO9">
+        <v>0.64710000000000001</v>
+      </c>
+      <c r="BP9">
+        <v>0.77470000000000006</v>
+      </c>
+      <c r="BQ9">
+        <v>0.80330000000000001</v>
+      </c>
+      <c r="BR9">
+        <v>0.72650000000000003</v>
+      </c>
+      <c r="BS9">
+        <v>0.73980000000000001</v>
+      </c>
+      <c r="BT9">
+        <v>1.1516</v>
+      </c>
+      <c r="BU9">
+        <v>1.2245999999999999</v>
+      </c>
+      <c r="BV9">
+        <v>2.4962</v>
+      </c>
+      <c r="BW9">
+        <v>0.40720000000000001</v>
+      </c>
+      <c r="BX9">
+        <v>0.41260000000000002</v>
+      </c>
+      <c r="BY9">
+        <v>0.44890000000000002</v>
+      </c>
+      <c r="BZ9">
+        <v>0.45350000000000001</v>
+      </c>
+      <c r="CA9">
+        <v>0.5413</v>
+      </c>
+      <c r="CB9">
+        <v>0.63080000000000003</v>
+      </c>
+      <c r="CC9">
+        <v>0.61870000000000003</v>
+      </c>
+      <c r="CD9">
+        <v>0.57509999999999994</v>
+      </c>
+      <c r="CE9">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="CF9">
+        <v>0.73709999999999998</v>
+      </c>
+      <c r="CG9">
+        <v>0.6714</v>
+      </c>
+      <c r="CH9">
+        <v>1.5208999999999999</v>
+      </c>
+      <c r="CI9">
+        <v>0.39760000000000001</v>
+      </c>
+      <c r="CJ9">
+        <v>0.42130000000000001</v>
+      </c>
+      <c r="CK9">
+        <v>0.43</v>
+      </c>
+      <c r="CL9">
+        <v>0.47720000000000001</v>
+      </c>
+      <c r="CM9">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="CN9">
+        <v>0.6502</v>
+      </c>
+      <c r="CO9">
+        <v>0.49740000000000001</v>
+      </c>
+      <c r="CP9">
+        <v>0.3957</v>
+      </c>
+      <c r="CQ9">
+        <v>0.62809999999999999</v>
+      </c>
+      <c r="CR9">
+        <v>0.90429999999999999</v>
+      </c>
+      <c r="CS9">
+        <v>1.0628</v>
+      </c>
+      <c r="CT9">
+        <v>1.5630999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>27.5</v>
+      </c>
+      <c r="C10">
+        <v>0.60129999999999995</v>
+      </c>
+      <c r="D10">
+        <v>0.64759999999999995</v>
+      </c>
+      <c r="E10">
+        <v>0.64939999999999998</v>
+      </c>
+      <c r="F10">
+        <v>0.7994</v>
+      </c>
+      <c r="G10">
+        <v>0.83530000000000004</v>
+      </c>
+      <c r="H10">
+        <v>0.96419999999999995</v>
+      </c>
+      <c r="I10">
+        <v>1.2618</v>
+      </c>
+      <c r="J10">
+        <v>1.0264</v>
+      </c>
+      <c r="K10">
+        <v>1.2856000000000001</v>
+      </c>
+      <c r="L10">
+        <v>1.6765000000000001</v>
+      </c>
+      <c r="M10">
+        <v>2.1926000000000001</v>
+      </c>
+      <c r="N10">
+        <v>2.9597000000000002</v>
+      </c>
+      <c r="O10">
+        <v>0.66449999999999998</v>
+      </c>
+      <c r="P10">
+        <v>0.62870000000000004</v>
+      </c>
+      <c r="Q10">
+        <v>0.68789999999999996</v>
+      </c>
+      <c r="R10">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="S10">
+        <v>0.96130000000000004</v>
+      </c>
+      <c r="T10">
+        <v>0.93940000000000001</v>
+      </c>
+      <c r="U10">
+        <v>1.1693</v>
+      </c>
+      <c r="V10">
+        <v>0.90859999999999996</v>
+      </c>
+      <c r="W10">
+        <v>1.298</v>
+      </c>
+      <c r="X10">
+        <v>1.3924000000000001</v>
+      </c>
+      <c r="Y10">
+        <v>2.5674000000000001</v>
+      </c>
+      <c r="Z10">
+        <v>2.7277</v>
+      </c>
+      <c r="AA10">
+        <v>0.51590000000000003</v>
+      </c>
+      <c r="AB10">
+        <v>0.54720000000000002</v>
+      </c>
+      <c r="AC10">
+        <v>0.59409999999999996</v>
+      </c>
+      <c r="AD10">
+        <v>0.65759999999999996</v>
+      </c>
+      <c r="AE10">
+        <v>0.72319999999999995</v>
+      </c>
+      <c r="AF10">
+        <v>0.79990000000000006</v>
+      </c>
+      <c r="AG10">
+        <v>0.89539999999999997</v>
+      </c>
+      <c r="AH10">
+        <v>0.86329999999999996</v>
+      </c>
+      <c r="AI10">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="AJ10">
+        <v>1.1161000000000001</v>
+      </c>
+      <c r="AK10">
+        <v>1.5353000000000001</v>
+      </c>
+      <c r="AL10">
+        <v>2.1413000000000002</v>
+      </c>
+      <c r="AM10">
+        <v>0.63139999999999996</v>
+      </c>
+      <c r="AN10">
+        <v>0.64129999999999998</v>
+      </c>
+      <c r="AO10">
+        <v>0.64459999999999995</v>
+      </c>
+      <c r="AP10">
+        <v>0.68489999999999995</v>
+      </c>
+      <c r="AQ10">
+        <v>0.70540000000000003</v>
+      </c>
+      <c r="AR10">
+        <v>1.1565000000000001</v>
+      </c>
+      <c r="AS10">
+        <v>1.0363</v>
+      </c>
+      <c r="AT10">
+        <v>0.61409999999999998</v>
+      </c>
+      <c r="AU10">
+        <v>0.81730000000000003</v>
+      </c>
+      <c r="AV10">
+        <v>0.8972</v>
+      </c>
+      <c r="AW10">
+        <v>0.92769999999999997</v>
+      </c>
+      <c r="AX10">
+        <v>1.3050999999999999</v>
+      </c>
+      <c r="AY10">
+        <v>0.54530000000000001</v>
+      </c>
+      <c r="AZ10">
+        <v>0.60109999999999997</v>
+      </c>
+      <c r="BA10">
+        <v>0.627</v>
+      </c>
+      <c r="BB10">
+        <v>0.72340000000000004</v>
+      </c>
+      <c r="BC10">
+        <v>0.80559999999999998</v>
+      </c>
+      <c r="BD10">
+        <v>0.96660000000000001</v>
+      </c>
+      <c r="BE10">
+        <v>1.1333</v>
+      </c>
+      <c r="BF10">
+        <v>0.90229999999999999</v>
+      </c>
+      <c r="BG10">
+        <v>1.0206</v>
+      </c>
+      <c r="BH10">
+        <v>1.2195</v>
+      </c>
+      <c r="BI10">
+        <v>1.7942</v>
+      </c>
+      <c r="BJ10">
+        <v>2.5001000000000002</v>
+      </c>
+      <c r="BK10">
+        <v>0.55979999999999996</v>
+      </c>
+      <c r="BL10">
+        <v>0.59430000000000005</v>
+      </c>
+      <c r="BM10">
+        <v>0.63590000000000002</v>
+      </c>
+      <c r="BN10">
+        <v>0.67079999999999995</v>
+      </c>
+      <c r="BO10">
+        <v>0.79530000000000001</v>
+      </c>
+      <c r="BP10">
+        <v>0.93730000000000002</v>
+      </c>
+      <c r="BQ10">
+        <v>0.92610000000000003</v>
+      </c>
+      <c r="BR10">
+        <v>0.86539999999999995</v>
+      </c>
+      <c r="BS10">
+        <v>0.87609999999999999</v>
+      </c>
+      <c r="BT10">
+        <v>1.3038000000000001</v>
+      </c>
+      <c r="BU10">
+        <v>1.3445</v>
+      </c>
+      <c r="BV10">
+        <v>2.6046</v>
+      </c>
+      <c r="BW10">
+        <v>0.53090000000000004</v>
+      </c>
+      <c r="BX10">
+        <v>0.5524</v>
+      </c>
+      <c r="BY10">
+        <v>0.55830000000000002</v>
+      </c>
+      <c r="BZ10">
+        <v>0.55769999999999997</v>
+      </c>
+      <c r="CA10">
+        <v>0.65090000000000003</v>
+      </c>
+      <c r="CB10">
+        <v>0.75019999999999998</v>
+      </c>
+      <c r="CC10">
+        <v>0.75460000000000005</v>
+      </c>
+      <c r="CD10">
+        <v>0.68179999999999996</v>
+      </c>
+      <c r="CE10">
+        <v>0.79210000000000003</v>
+      </c>
+      <c r="CF10">
+        <v>0.90259999999999996</v>
+      </c>
+      <c r="CG10">
+        <v>0.80479999999999996</v>
+      </c>
+      <c r="CH10">
+        <v>1.6466000000000001</v>
+      </c>
+      <c r="CI10">
+        <v>0.52990000000000004</v>
+      </c>
+      <c r="CJ10">
+        <v>0.55489999999999995</v>
+      </c>
+      <c r="CK10">
+        <v>0.54249999999999998</v>
+      </c>
+      <c r="CL10">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="CM10">
+        <v>0.63439999999999996</v>
+      </c>
+      <c r="CN10">
+        <v>0.74460000000000004</v>
+      </c>
+      <c r="CO10">
+        <v>0.59630000000000005</v>
+      </c>
+      <c r="CP10">
+        <v>0.51390000000000002</v>
+      </c>
+      <c r="CQ10">
+        <v>0.76239999999999997</v>
+      </c>
+      <c r="CR10">
+        <v>1.0714999999999999</v>
+      </c>
+      <c r="CS10">
+        <v>1.1781999999999999</v>
+      </c>
+      <c r="CT10">
+        <v>1.7346999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>27.5</v>
+      </c>
+      <c r="C11">
+        <v>0.47489999999999999</v>
+      </c>
+      <c r="D11">
+        <v>0.52080000000000004</v>
+      </c>
+      <c r="E11">
+        <v>0.51249999999999996</v>
+      </c>
+      <c r="F11">
+        <v>0.72360000000000002</v>
+      </c>
+      <c r="G11">
+        <v>0.72330000000000005</v>
+      </c>
+      <c r="H11">
+        <v>0.748</v>
+      </c>
+      <c r="I11">
+        <v>0.95720000000000005</v>
+      </c>
+      <c r="J11">
+        <v>0.83320000000000005</v>
+      </c>
+      <c r="K11">
+        <v>1.0355000000000001</v>
+      </c>
+      <c r="L11">
+        <v>1.2981</v>
+      </c>
+      <c r="M11">
+        <v>1.7678</v>
+      </c>
+      <c r="N11">
+        <v>2.3950999999999998</v>
+      </c>
+      <c r="O11">
+        <v>0.78</v>
+      </c>
+      <c r="P11">
+        <v>0.54679999999999995</v>
+      </c>
+      <c r="Q11">
+        <v>0.70089999999999997</v>
+      </c>
+      <c r="R11">
+        <v>0.75990000000000002</v>
+      </c>
+      <c r="S11">
+        <v>0.69620000000000004</v>
+      </c>
+      <c r="T11">
+        <v>0.7994</v>
+      </c>
+      <c r="U11">
+        <v>1.0452999999999999</v>
+      </c>
+      <c r="V11">
+        <v>0.746</v>
+      </c>
+      <c r="W11">
+        <v>1.105</v>
+      </c>
+      <c r="X11">
+        <v>1.1455</v>
+      </c>
+      <c r="Y11">
+        <v>1.9369000000000001</v>
+      </c>
+      <c r="Z11">
+        <v>2.2042000000000002</v>
+      </c>
+      <c r="AA11">
+        <v>0.39069999999999999</v>
+      </c>
+      <c r="AB11">
+        <v>0.45550000000000002</v>
+      </c>
+      <c r="AC11">
+        <v>0.54530000000000001</v>
+      </c>
+      <c r="AD11">
+        <v>0.621</v>
+      </c>
+      <c r="AE11">
+        <v>0.6573</v>
+      </c>
+      <c r="AF11">
+        <v>0.71970000000000001</v>
+      </c>
+      <c r="AG11">
+        <v>0.80740000000000001</v>
+      </c>
+      <c r="AH11">
+        <v>0.76049999999999995</v>
+      </c>
+      <c r="AI11">
+        <v>0.85809999999999997</v>
+      </c>
+      <c r="AJ11">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="AK11">
+        <v>1.36</v>
+      </c>
+      <c r="AL11">
+        <v>1.8740000000000001</v>
+      </c>
+      <c r="AM11">
+        <v>0.48859999999999998</v>
+      </c>
+      <c r="AN11">
+        <v>0.49680000000000002</v>
+      </c>
+      <c r="AO11">
+        <v>0.51290000000000002</v>
+      </c>
+      <c r="AP11">
+        <v>0.61060000000000003</v>
+      </c>
+      <c r="AQ11">
+        <v>0.59460000000000002</v>
+      </c>
+      <c r="AR11">
+        <v>0.9627</v>
+      </c>
+      <c r="AS11">
+        <v>0.98219999999999996</v>
+      </c>
+      <c r="AT11">
+        <v>0.51070000000000004</v>
+      </c>
+      <c r="AU11">
+        <v>0.59660000000000002</v>
+      </c>
+      <c r="AV11">
+        <v>0.63870000000000005</v>
+      </c>
+      <c r="AW11">
+        <v>0.68840000000000001</v>
+      </c>
+      <c r="AX11">
+        <v>0.70930000000000004</v>
+      </c>
+      <c r="AY11">
+        <v>0.48320000000000002</v>
+      </c>
+      <c r="AZ11">
+        <v>0.52459999999999996</v>
+      </c>
+      <c r="BA11">
+        <v>0.55520000000000003</v>
+      </c>
+      <c r="BB11">
+        <v>0.6351</v>
+      </c>
+      <c r="BC11">
+        <v>0.70860000000000001</v>
+      </c>
+      <c r="BD11">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="BE11">
+        <v>1.0584</v>
+      </c>
+      <c r="BF11">
+        <v>0.77390000000000003</v>
+      </c>
+      <c r="BG11">
+        <v>0.89880000000000004</v>
+      </c>
+      <c r="BH11">
+        <v>1.0504</v>
+      </c>
+      <c r="BI11">
+        <v>1.5537000000000001</v>
+      </c>
+      <c r="BJ11">
+        <v>2.1972999999999998</v>
+      </c>
+      <c r="BK11">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="BL11">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="BM11">
+        <v>0.60919999999999996</v>
+      </c>
+      <c r="BN11">
+        <v>0.61739999999999995</v>
+      </c>
+      <c r="BO11">
+        <v>0.74029999999999996</v>
+      </c>
+      <c r="BP11">
+        <v>0.89739999999999998</v>
+      </c>
+      <c r="BQ11">
+        <v>0.80649999999999999</v>
+      </c>
+      <c r="BR11">
+        <v>0.76729999999999998</v>
+      </c>
+      <c r="BS11">
+        <v>0.79310000000000003</v>
+      </c>
+      <c r="BT11">
+        <v>1.2245999999999999</v>
+      </c>
+      <c r="BU11">
+        <v>1.1786000000000001</v>
+      </c>
+      <c r="BV11">
+        <v>2.3178999999999998</v>
+      </c>
+      <c r="BW11">
+        <v>0.50590000000000002</v>
+      </c>
+      <c r="BX11">
+        <v>0.54349999999999998</v>
+      </c>
+      <c r="BY11">
+        <v>0.57310000000000005</v>
+      </c>
+      <c r="BZ11">
+        <v>0.52329999999999999</v>
+      </c>
+      <c r="CA11">
+        <v>0.61919999999999997</v>
+      </c>
+      <c r="CB11">
+        <v>0.74119999999999997</v>
+      </c>
+      <c r="CC11">
+        <v>0.6986</v>
+      </c>
+      <c r="CD11">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="CE11">
+        <v>0.76049999999999995</v>
+      </c>
+      <c r="CF11">
+        <v>0.82050000000000001</v>
+      </c>
+      <c r="CG11">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="CH11">
+        <v>1.4812000000000001</v>
+      </c>
+      <c r="CI11">
+        <v>0.4955</v>
+      </c>
+      <c r="CJ11">
+        <v>0.51780000000000004</v>
+      </c>
+      <c r="CK11">
+        <v>0.55520000000000003</v>
+      </c>
+      <c r="CL11">
+        <v>0.56430000000000002</v>
+      </c>
+      <c r="CM11">
+        <v>0.6542</v>
+      </c>
+      <c r="CN11">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="CO11">
+        <v>0.61150000000000004</v>
+      </c>
+      <c r="CP11">
+        <v>0.54820000000000002</v>
+      </c>
+      <c r="CQ11">
+        <v>0.73560000000000003</v>
+      </c>
+      <c r="CR11">
+        <v>0.99680000000000002</v>
+      </c>
+      <c r="CS11">
+        <v>1.1126</v>
+      </c>
+      <c r="CT11">
+        <v>1.5112000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>27.5</v>
+      </c>
+      <c r="C12">
+        <v>0.35520000000000002</v>
+      </c>
+      <c r="D12">
+        <v>0.38869999999999999</v>
+      </c>
+      <c r="E12">
+        <v>0.3901</v>
+      </c>
+      <c r="F12">
+        <v>0.51370000000000005</v>
+      </c>
+      <c r="G12">
+        <v>0.54220000000000002</v>
+      </c>
+      <c r="H12">
+        <v>0.64659999999999995</v>
+      </c>
+      <c r="I12">
+        <v>0.85780000000000001</v>
+      </c>
+      <c r="J12">
+        <v>0.64329999999999998</v>
+      </c>
+      <c r="K12">
+        <v>0.91039999999999999</v>
+      </c>
+      <c r="L12">
+        <v>1.2234</v>
+      </c>
+      <c r="M12">
+        <v>1.6780999999999999</v>
+      </c>
+      <c r="N12">
+        <v>2.2867999999999999</v>
+      </c>
+      <c r="O12">
+        <v>0.54730000000000001</v>
+      </c>
+      <c r="P12">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="Q12">
+        <v>0.51080000000000003</v>
+      </c>
+      <c r="R12">
+        <v>0.5887</v>
+      </c>
+      <c r="S12">
+        <v>0.57620000000000005</v>
+      </c>
+      <c r="T12">
+        <v>0.66390000000000005</v>
+      </c>
+      <c r="U12">
+        <v>0.83330000000000004</v>
+      </c>
+      <c r="V12">
+        <v>0.58660000000000001</v>
+      </c>
+      <c r="W12">
+        <v>0.96160000000000001</v>
+      </c>
+      <c r="X12">
+        <v>1.0069999999999999</v>
+      </c>
+      <c r="Y12">
+        <v>1.8312999999999999</v>
+      </c>
+      <c r="Z12">
+        <v>2.0419999999999998</v>
+      </c>
+      <c r="AA12">
+        <v>0.29249999999999998</v>
+      </c>
+      <c r="AB12">
+        <v>0.3251</v>
+      </c>
+      <c r="AC12">
+        <v>0.39</v>
+      </c>
+      <c r="AD12">
+        <v>0.46</v>
+      </c>
+      <c r="AE12">
+        <v>0.50180000000000002</v>
+      </c>
+      <c r="AF12">
+        <v>0.57310000000000005</v>
+      </c>
+      <c r="AG12">
+        <v>0.64570000000000005</v>
+      </c>
+      <c r="AH12">
+        <v>0.60240000000000005</v>
+      </c>
+      <c r="AI12">
+        <v>0.71189999999999998</v>
+      </c>
+      <c r="AJ12">
+        <v>0.83540000000000003</v>
+      </c>
+      <c r="AK12">
+        <v>1.1825000000000001</v>
+      </c>
+      <c r="AL12">
+        <v>1.7426999999999999</v>
+      </c>
+      <c r="AM12">
+        <v>0.35189999999999999</v>
+      </c>
+      <c r="AN12">
+        <v>0.33339999999999997</v>
+      </c>
+      <c r="AO12">
+        <v>0.3695</v>
+      </c>
+      <c r="AP12">
+        <v>0.42749999999999999</v>
+      </c>
+      <c r="AQ12">
+        <v>0.38890000000000002</v>
+      </c>
+      <c r="AR12">
+        <v>0.84960000000000002</v>
+      </c>
+      <c r="AS12">
+        <v>0.65610000000000002</v>
+      </c>
+      <c r="AT12">
+        <v>0.3518</v>
+      </c>
+      <c r="AU12">
+        <v>0.42049999999999998</v>
+      </c>
+      <c r="AV12">
+        <v>0.50039999999999996</v>
+      </c>
+      <c r="AW12">
+        <v>0.48959999999999998</v>
+      </c>
+      <c r="AX12">
+        <v>0.54049999999999998</v>
+      </c>
+      <c r="AY12">
+        <v>0.3231</v>
+      </c>
+      <c r="AZ12">
+        <v>0.37759999999999999</v>
+      </c>
+      <c r="BA12">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="BB12">
+        <v>0.47639999999999999</v>
+      </c>
+      <c r="BC12">
+        <v>0.58140000000000003</v>
+      </c>
+      <c r="BD12">
+        <v>0.68640000000000001</v>
+      </c>
+      <c r="BE12">
+        <v>0.88039999999999996</v>
+      </c>
+      <c r="BF12">
+        <v>0.65059999999999996</v>
+      </c>
+      <c r="BG12">
+        <v>0.75880000000000003</v>
+      </c>
+      <c r="BH12">
+        <v>0.9194</v>
+      </c>
+      <c r="BI12">
+        <v>1.4105000000000001</v>
+      </c>
+      <c r="BJ12">
+        <v>2.0432000000000001</v>
+      </c>
+      <c r="BK12">
+        <v>0.35770000000000002</v>
+      </c>
+      <c r="BL12">
+        <v>0.3508</v>
+      </c>
+      <c r="BM12">
+        <v>0.43559999999999999</v>
+      </c>
+      <c r="BN12">
+        <v>0.42549999999999999</v>
+      </c>
+      <c r="BO12">
+        <v>0.55659999999999998</v>
+      </c>
+      <c r="BP12">
+        <v>0.68769999999999998</v>
+      </c>
+      <c r="BQ12">
+        <v>0.67210000000000003</v>
+      </c>
+      <c r="BR12">
+        <v>0.60850000000000004</v>
+      </c>
+      <c r="BS12">
+        <v>0.62639999999999996</v>
+      </c>
+      <c r="BT12">
+        <v>1.0108999999999999</v>
+      </c>
+      <c r="BU12">
+        <v>1.0885</v>
+      </c>
+      <c r="BV12">
+        <v>2.1463999999999999</v>
+      </c>
+      <c r="BW12">
+        <v>0.33529999999999999</v>
+      </c>
+      <c r="BX12">
+        <v>0.33979999999999999</v>
+      </c>
+      <c r="BY12">
+        <v>0.3886</v>
+      </c>
+      <c r="BZ12">
+        <v>0.38779999999999998</v>
+      </c>
+      <c r="CA12">
+        <v>0.47339999999999999</v>
+      </c>
+      <c r="CB12">
+        <v>0.5776</v>
+      </c>
+      <c r="CC12">
+        <v>0.52849999999999997</v>
+      </c>
+      <c r="CD12">
+        <v>0.50790000000000002</v>
+      </c>
+      <c r="CE12">
+        <v>0.5736</v>
+      </c>
+      <c r="CF12">
+        <v>0.63280000000000003</v>
+      </c>
+      <c r="CG12">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="CH12">
+        <v>1.3225</v>
+      </c>
+      <c r="CI12">
+        <v>0.31940000000000002</v>
+      </c>
+      <c r="CJ12">
+        <v>0.35439999999999999</v>
+      </c>
+      <c r="CK12">
+        <v>0.3574</v>
+      </c>
+      <c r="CL12">
+        <v>0.41349999999999998</v>
+      </c>
+      <c r="CM12">
+        <v>0.45029999999999998</v>
+      </c>
+      <c r="CN12">
+        <v>0.56559999999999999</v>
+      </c>
+      <c r="CO12">
+        <v>0.39389999999999997</v>
+      </c>
+      <c r="CP12">
+        <v>0.32819999999999999</v>
+      </c>
+      <c r="CQ12">
+        <v>0.5504</v>
+      </c>
+      <c r="CR12">
+        <v>0.8004</v>
+      </c>
+      <c r="CS12">
+        <v>0.91239999999999999</v>
+      </c>
+      <c r="CT12">
+        <v>1.3692</v>
+      </c>
+    </row>
+    <row r="13" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>27.5</v>
+      </c>
+      <c r="C13">
+        <v>0.39489999999999997</v>
+      </c>
+      <c r="D13">
+        <v>0.43940000000000001</v>
+      </c>
+      <c r="E13">
+        <v>0.4516</v>
+      </c>
+      <c r="F13">
+        <v>0.67430000000000001</v>
+      </c>
+      <c r="G13">
+        <v>0.60270000000000001</v>
+      </c>
+      <c r="H13">
+        <v>0.68489999999999995</v>
+      </c>
+      <c r="I13">
+        <v>0.91080000000000005</v>
+      </c>
+      <c r="J13">
+        <v>0.71020000000000005</v>
+      </c>
+      <c r="K13">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="L13">
+        <v>1.2402</v>
+      </c>
+      <c r="M13">
+        <v>1.6774</v>
+      </c>
+      <c r="N13">
+        <v>2.3006000000000002</v>
+      </c>
+      <c r="O13">
+        <v>0.61150000000000004</v>
+      </c>
+      <c r="P13">
+        <v>0.43659999999999999</v>
+      </c>
+      <c r="Q13">
+        <v>0.60109999999999997</v>
+      </c>
+      <c r="R13">
+        <v>0.65669999999999995</v>
+      </c>
+      <c r="S13">
+        <v>0.63749999999999996</v>
+      </c>
+      <c r="T13">
+        <v>0.71909999999999996</v>
+      </c>
+      <c r="U13">
+        <v>0.91449999999999998</v>
+      </c>
+      <c r="V13">
+        <v>0.64349999999999996</v>
+      </c>
+      <c r="W13">
+        <v>1.0166999999999999</v>
+      </c>
+      <c r="X13">
+        <v>1.0459000000000001</v>
+      </c>
+      <c r="Y13">
+        <v>1.8648</v>
+      </c>
+      <c r="Z13">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="AA13">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="AB13">
+        <v>0.37909999999999999</v>
+      </c>
+      <c r="AC13">
+        <v>0.4526</v>
+      </c>
+      <c r="AD13">
+        <v>0.55120000000000002</v>
+      </c>
+      <c r="AE13">
+        <v>0.53739999999999999</v>
+      </c>
+      <c r="AF13">
+        <v>0.62429999999999997</v>
+      </c>
+      <c r="AG13">
+        <v>0.71519999999999995</v>
+      </c>
+      <c r="AH13">
+        <v>0.66249999999999998</v>
+      </c>
+      <c r="AI13">
+        <v>0.7571</v>
+      </c>
+      <c r="AJ13">
+        <v>0.88229999999999997</v>
+      </c>
+      <c r="AK13">
+        <v>1.2246999999999999</v>
+      </c>
+      <c r="AL13">
+        <v>1.7809999999999999</v>
+      </c>
+      <c r="AM13">
+        <v>0.39329999999999998</v>
+      </c>
+      <c r="AN13">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="AO13">
+        <v>0.44379999999999997</v>
+      </c>
+      <c r="AP13">
+        <v>0.47210000000000002</v>
+      </c>
+      <c r="AQ13">
+        <v>0.44409999999999999</v>
+      </c>
+      <c r="AR13">
+        <v>0.89690000000000003</v>
+      </c>
+      <c r="AS13">
+        <v>0.751</v>
+      </c>
+      <c r="AT13">
+        <v>0.39429999999999998</v>
+      </c>
+      <c r="AU13">
+        <v>0.47249999999999998</v>
+      </c>
+      <c r="AV13">
+        <v>0.5444</v>
+      </c>
+      <c r="AW13">
+        <v>0.55089999999999995</v>
+      </c>
+      <c r="AX13">
+        <v>0.59840000000000004</v>
+      </c>
+      <c r="AY13">
+        <v>0.37780000000000002</v>
+      </c>
+      <c r="AZ13">
+        <v>0.42120000000000002</v>
+      </c>
+      <c r="BA13">
+        <v>0.4854</v>
+      </c>
+      <c r="BB13">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="BC13">
+        <v>0.61770000000000003</v>
+      </c>
+      <c r="BD13">
+        <v>0.74639999999999995</v>
+      </c>
+      <c r="BE13">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="BF13">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="BG13">
+        <v>0.80310000000000004</v>
+      </c>
+      <c r="BH13">
+        <v>0.96450000000000002</v>
+      </c>
+      <c r="BI13">
+        <v>1.4618</v>
+      </c>
+      <c r="BJ13">
+        <v>2.0964999999999998</v>
+      </c>
+      <c r="BK13">
+        <v>0.3947</v>
+      </c>
+      <c r="BL13">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="BM13">
+        <v>0.48659999999999998</v>
+      </c>
+      <c r="BN13">
+        <v>0.4859</v>
+      </c>
+      <c r="BO13">
+        <v>0.60850000000000004</v>
+      </c>
+      <c r="BP13">
+        <v>0.75570000000000004</v>
+      </c>
+      <c r="BQ13">
+        <v>0.72450000000000003</v>
+      </c>
+      <c r="BR13">
+        <v>0.68889999999999996</v>
+      </c>
+      <c r="BS13">
+        <v>0.6764</v>
+      </c>
+      <c r="BT13">
+        <v>1.0415000000000001</v>
+      </c>
+      <c r="BU13">
+        <v>1.1019000000000001</v>
+      </c>
+      <c r="BV13">
+        <v>2.1993999999999998</v>
+      </c>
+      <c r="BW13">
+        <v>0.37890000000000001</v>
+      </c>
+      <c r="BX13">
+        <v>0.41</v>
+      </c>
+      <c r="BY13">
+        <v>0.42870000000000003</v>
+      </c>
+      <c r="BZ13">
+        <v>0.40789999999999998</v>
+      </c>
+      <c r="CA13">
+        <v>0.52059999999999995</v>
+      </c>
+      <c r="CB13">
+        <v>0.62470000000000003</v>
+      </c>
+      <c r="CC13">
+        <v>0.59279999999999999</v>
+      </c>
+      <c r="CD13">
+        <v>0.53090000000000004</v>
+      </c>
+      <c r="CE13">
+        <v>0.62639999999999996</v>
+      </c>
+      <c r="CF13">
+        <v>0.70440000000000003</v>
+      </c>
+      <c r="CG13">
+        <v>0.60540000000000005</v>
+      </c>
+      <c r="CH13">
+        <v>1.3804000000000001</v>
+      </c>
+      <c r="CI13">
+        <v>0.38729999999999998</v>
+      </c>
+      <c r="CJ13">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="CK13">
+        <v>0.40689999999999998</v>
+      </c>
+      <c r="CL13">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="CM13">
+        <v>0.50209999999999999</v>
+      </c>
+      <c r="CN13">
+        <v>0.59830000000000005</v>
+      </c>
+      <c r="CO13">
+        <v>0.4607</v>
+      </c>
+      <c r="CP13">
+        <v>0.39419999999999999</v>
+      </c>
+      <c r="CQ13">
+        <v>0.59870000000000001</v>
+      </c>
+      <c r="CR13">
+        <v>0.87</v>
+      </c>
+      <c r="CS13">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="CT13">
+        <v>1.4289000000000001</v>
       </c>
     </row>
   </sheetData>
